--- a/data/Datasets/Controls/Metadata_controls.xlsx
+++ b/data/Datasets/Controls/Metadata_controls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887BB149-5124-4553-B7E4-10F78A078F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC498E8A-1972-4F11-9F98-01A45DC1AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0E1C536C-C93F-4931-A05D-E98CE69BB0FA}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0E1C536C-C93F-4931-A05D-E98CE69BB0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
   <si>
     <t>Type</t>
   </si>
@@ -354,13 +354,16 @@
   </si>
   <si>
     <t>CD3_549</t>
+  </si>
+  <si>
+    <t>S1209</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +373,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -395,8 +406,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -731,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138B01A8-C6E8-46C9-887C-4151042B88EB}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B94" sqref="B2:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -879,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -887,7 +899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -895,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -903,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -911,7 +923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -919,7 +931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -927,7 +939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -935,7 +947,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -943,7 +955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -951,7 +963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -959,7 +971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -967,7 +979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -975,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -983,7 +995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -991,17 +1003,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -1009,7 +1022,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
@@ -1017,7 +1030,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
@@ -1025,7 +1038,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
@@ -1033,7 +1046,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1041,7 +1054,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -1049,7 +1062,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
@@ -1057,7 +1070,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
@@ -1065,7 +1078,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -1073,7 +1086,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
@@ -1081,7 +1094,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
@@ -1089,7 +1102,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
@@ -1097,7 +1110,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
@@ -1105,7 +1118,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
@@ -1113,7 +1126,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
@@ -1121,7 +1134,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
@@ -1129,7 +1142,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
@@ -1137,7 +1150,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -1145,7 +1158,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
@@ -1153,7 +1166,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
@@ -1161,7 +1174,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
@@ -1169,7 +1182,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
@@ -1177,7 +1190,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
@@ -1185,7 +1198,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -1193,7 +1206,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
         <v>73</v>
@@ -1201,7 +1214,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -1209,7 +1222,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
@@ -1217,7 +1230,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
@@ -1225,7 +1238,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
         <v>73</v>
@@ -1233,7 +1246,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
@@ -1241,7 +1254,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
@@ -1249,7 +1262,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
@@ -1257,7 +1270,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
@@ -1265,7 +1278,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -1273,7 +1286,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
@@ -1281,7 +1294,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -1289,7 +1302,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
@@ -1297,7 +1310,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -1305,15 +1318,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -1321,7 +1334,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -1329,7 +1342,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -1337,7 +1350,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -1345,7 +1358,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -1353,7 +1366,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -1361,7 +1374,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -1369,7 +1382,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -1377,7 +1390,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -1385,15 +1398,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>33</v>
@@ -1401,7 +1414,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
         <v>33</v>
@@ -1409,7 +1422,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
         <v>33</v>
@@ -1417,7 +1430,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
         <v>33</v>
@@ -1425,7 +1438,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
         <v>33</v>
@@ -1433,7 +1446,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>33</v>
@@ -1441,7 +1454,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>33</v>
@@ -1449,15 +1462,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
         <v>97</v>
@@ -1465,7 +1478,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
         <v>97</v>
@@ -1473,7 +1486,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -1481,7 +1494,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
@@ -1489,15 +1502,15 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
         <v>33</v>
@@ -1505,7 +1518,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
@@ -1513,7 +1526,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
@@ -1521,15 +1534,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
@@ -1537,7 +1550,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
@@ -1545,9 +1558,17 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>22</v>
       </c>
     </row>
